--- a/experimentos/parte_1_experimentos/final/resultados_ollama_llama3_3_70b_progressive_hint.xlsx
+++ b/experimentos/parte_1_experimentos/final/resultados_ollama_llama3_3_70b_progressive_hint.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The incident description indicates a brute force attack on SSH, with multiple failed login attempts using different usernames (e.g., "test5", "rundeck", "jimmy", and "root") from a single IP address. This is a clear example of an attempt to gain unauthorized access to user or administrator accounts, which aligns with the definition of Account Compromise (CAT1). The log lines provided show repeated authentication failures, further supporting this classification.</t>
+          <t>The incident description indicates an attempt to gain unauthorized access to user accounts through SSH brute force attacks, as evidenced by the repeated failed login attempts with different usernames (e.g., "test5", "rundeck", "jimmy", and "root") from a specific IP address ([IP_ADDRESS_32a64212fc]). This aligns with the definition of Account Compromise (CAT1), which includes unauthorized access to user or administrator accounts, such as through credential phishing or SSH brute force attacks. The log lines provided show multiple instances of authentication failures and failed password attempts for various usernames, further supporting this classification.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -688,7 +688,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The incident description indicates that an IP address ([IP_ADDRESS_984299dc8f]) is being used to send spam emails, which suggests misuse of resources. The log lines provided show attempts to connect to a mail server and send emails, but the recipient address is rejected. This behavior is consistent with unauthorized use of resources for malicious purposes, such as spamming or phishing, which aligns with the definition of CAT10: Misuse of Resources. Specifically, this incident can be classified as an example of "malware distribution" or "unauthorized use for other purposes", which are both examples provided under the CAT10 category.</t>
+          <t>The incident description involves a report of abuse from an IP address, which is suspected to be involved in unauthorized activities. The log lines provided show attempts to connect to a mail server and send emails, but the recipient address is rejected. This suggests that the IP address is being used for malicious purposes, such as spamming or phishing. The category CAT10: Misuse of Resources is the most appropriate classification, as it involves the unauthorized use of resources (in this case, the IP address and mail server) for other purposes, which aligns with the examples provided for this category, such as cryptocurrency mining or malware distribution.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -767,7 +767,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The incident description indicates an attempt to gain unauthorized access to a system through SSH brute force, as evidenced by the multiple failed login attempts with different usernames (e.g., "cjl", "kafka", "cyr", "sat", "extrim", "user1") from the same IP address ([IP_ADDRESS_b29a075d57]). This aligns with the definition of Account Compromise (CAT1), which includes unauthorized access to user or administrator accounts, such as through credential phishing or SSH brute force attacks. The log lines provided show repeated authentication failures and failed password attempts for invalid users, further supporting this classification.</t>
+          <t>The incident description indicates an attempt to gain unauthorized access to a system through SSH brute force, as evidenced by the multiple failed login attempts with different usernames (e.g., "cjl", "kafka", "cyr", "sat", "extrim", "user1") from the same IP address ([IP_ADDRESS_b29a075d57]). This aligns with the definition of Account Compromise (CAT1), which includes unauthorized access to user or administrator accounts, such as through credential phishing or SSH brute force attacks. The log lines provided show repeated authentication failures and disconnections, further supporting this classification.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -855,7 +855,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates a malware infection, specifically mentioning "malware SystemBC" which is used as a backdoor for lateral movement in the victim's network. This aligns with the definition of CAT2: Malware – infection by malicious code, which includes examples such as ransomware and Trojan horses. The presence of SystemBC, known for its use in ransomware attacks like Ryuk and Egregor, further supports this classification. The recommended actions to block accounts, disconnect infected computers from the network, verify backup security, investigate other potentially compromised machines, and reinstall systems with updated software also point towards a malware incident.</t>
+          <t>The incident description clearly indicates a malware infection, specifically mentioning "malware SystemBC" which is used as a backdoor for lateral movement in the victim's network. This aligns with the definition of CAT2: Malware – infection by malicious code, which includes examples such as ransomware and Trojan horses. The presence of SystemBC, known to be associated with ransomware attacks like Ryuk and Egregor, further supports this classification. The recommendations provided, such as blocking Windows accounts, disconnecting infected computers from the network, and reinstalling systems, are typical responses to a malware infection, reinforcing the choice of CAT2.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The incident description explicitly mentions the presence of malware, specifically SystemBC, which is a backdoor used for lateral movement in the network and has been associated with ransomware attacks like Ryuk and Egregor. This aligns perfectly with the definition of CAT2: Malware – infection by malicious code, as it involves the infection of systems by malicious software (SystemBC) that can lead to further compromise such as data encryption by ransomware. The details provided about the malware's capabilities, including its use as a proxy or remote administration tool and its ability to utilize Tor for encrypted communication with Command and Control servers, further support this classification.</t>
+          <t>The incident description clearly indicates a malware infection, specifically mentioning "malware SystemBC" which is used as a backdoor to potentially facilitate lateral movement within the victim's network. This aligns with the definition of CAT2: Malware – infection by malicious code, which includes examples such as ransomware and Trojan horses. The presence of SystemBC, known for its use in ransomware attacks like Ryuk and Egregor, further supports this classification. The recommendation to block Windows accounts, disconnect infected computers from the network, verify backup security, investigate other potentially compromised machines, and reinstall systems with updated software also points towards a malware incident.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The incident description involves a report of abuse from an IP address, which is suspected to be involved in unauthorized activities. The log lines provided show attempts to connect to a mail server and send emails, but these attempts are rejected due to sender address rejection or connection issues. This suggests that the IP address might be used for spamming or other malicious activities, which can be classified as misuse of resources (CAT10). The fact that CERT.br is forwarding the complaint to the proper contacts for the network and the mention of Fail2Ban, an intrusion prevention software, further supports this classification, indicating an attempt to prevent unauthorized use of resources.</t>
+          <t>The incident description involves a report of abuse from an IP address, which is suspected to be involved in unauthorized activities. The log lines provided show attempts to connect to a mail server and send emails, but the connections are rejected due to sender address rejection or busy server ports. This suggests that the IP address is being used for malicious purposes, such as spamming or malware distribution, which falls under the category of Misuse of Resources (CAT10). The fact that CERT.br is forwarding the email to the proper contacts for the network and asking them to investigate and take action also implies that the incident is related to unauthorized use of resources.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The incident description involves a report of abuse from an IP address, which is suspected to be involved in unauthorized activities. The log lines provided show attempts to connect to a mail server and send emails, which could indicate misuse of resources for spamming or other malicious purposes. This aligns with the definition of CAT10: Misuse of Resources, where an individual or entity uses resources (in this case, network resources) for unauthorized purposes, such as distributing malware or engaging in other illicit activities. The fact that CERT.br is forwarding the complaint to the proper contacts for handling the incident further supports this classification, as it implies that the IP address in question may be involved in activities that are not authorized by its legitimate owners.</t>
+          <t>The incident description involves a report of abuse from an IP address, which is suspected to be involved in unauthorized activities. The log lines provided show attempts to connect to a mail server and send emails, which could indicate misuse of resources for spamming or other malicious purposes. This aligns with the definition of CAT10: Misuse of Resources, where an individual or entity uses resources (in this case, network resources) for unauthorized purposes, such as distributing malware or engaging in other illicit activities. The fact that CERT.br is forwarding the complaint to the proper contacts for handling the incident further supports this classification, as it suggests an attempt to address potential misuse of network resources.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The incident description mentions a machine performing malicious activities and possibly being compromised, with logs showing attempts to access systems via SSH. This aligns with examples of Account Compromise, such as SSH brute force attacks, which are unauthorized access attempts to user or administrator accounts. The mention of "maquina realizando atividades maliciosas" (machine performing malicious activities) and the context provided suggest that there has been an attempt or a successful unauthorized access to an account, fitting the CAT1 definition.</t>
+          <t>The incident description mentions a machine performing malicious activities and possibly being compromised, with logs showing attempts to access systems via SSH. This aligns with examples of Account Compromise, such as SSH brute force attacks, which are unauthorized access attempts to user or administrator accounts. The mention of "maquina realizando atividades maliciosas" (machine performing malicious activities) and the context provided by CERT.br about potential compromise and misuse of the machine for attacks further supports this classification.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates a Denial of Service Attack, specifically a Distributed Denial of Service (DDoS) attack, where an IP address under the control of the recipient was used as part of a coordinated botnet to attack one of the sender's customers. The attack resulted in significant packet loss due to external link saturation and required emergency mitigation measures. This aligns with the definition of CAT3: Denial of Service Attack, which includes volumetric DoS or DDoS attacks aimed at making systems unavailable.</t>
+          <t>The incident description clearly indicates a Denial of Service Attack, specifically a Distributed Denial of Service (DDoS) attack, where an IP address under the control of the recipient was used as part of a coordinated botnet to attack one of the sender's customers. The attack resulted in significant packet loss due to external link saturation and required emergency mitigation measures. This aligns with the CAT3 definition, which includes making systems unavailable through volumetric DoS or DDoS attacks.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates a Denial of Service Attack, specifically a Distributed Denial of Service (DDoS) attack, where an IP address under the control of the recipient was used as part of a coordinated botnet to attack one of the sender's customers. The attack resulted in significant packet loss due to external link saturation and required emergency null-route operations to mitigate. This aligns with the CAT3 definition, which includes making systems unavailable through volumetric DoS or DDoS attacks.</t>
+          <t>The incident description clearly indicates a Denial of Service Attack, specifically a Distributed Denial of Service (DDoS) attack, where an IP address under the control of the recipient was used as part of a coordinated botnet to attack one of the sender's customers. The attack resulted in significant packet loss due to external link saturation and required emergency mitigation measures. This aligns with the definition of CAT3: Denial of Service Attack, which includes volumetric DoS or DDoS attacks aimed at making systems unavailable.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The incident description involves a vulnerability exploitation, specifically the CVE-2022-37042 vulnerability in the Zimbra Collaboration Suite. This allows an attacker to upload files to the server and execute arbitrary code without authentication, potentially leading to unauthorized access to user accounts and sensitive information. The CERT.br alert suggests that the recipient verify if their Zimbra server is vulnerable, update the software with the latest patches, and check for potential compromise. This scenario aligns with the definition of CAT5: Vulnerability Exploitation, which includes examples of exploitation of critical CVEs and remote code execution (RCE).</t>
+          <t>The incident description involves a vulnerability exploitation, specifically the CVE-2022-37042 vulnerability in the Zimbra Collaboration Suite. This allows an attacker to upload files to the server and execute arbitrary code without authentication, potentially leading to unauthorized access to user accounts and sensitive information. The CERT.br alert suggests that the recipient verify if their Zimbra server is vulnerable, update the software with the latest patches, and check for potential compromise. This scenario aligns with the definition of CAT5: Vulnerability Exploitation, which includes using technical flaws for attacks, such as exploitation of critical CVEs and remote code execution (RCE).</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>The incident description provided indicates a vulnerability exploitation scenario where the BGP (Border Gateway Protocol) service is exposed to the Internet, making it potentially accessible to unauthorized parties. This exposure could lead to denial-of-service attacks or other malicious activities targeting the BGP service of the affected system. The notification from CERT.br suggests protecting the BGP service via ACLs (Access Control Lists) or disabling it if not necessary, which directly points to addressing a technical flaw (the exposure of the BGP service) to prevent potential attacks. This aligns with the definition of CAT5: Vulnerability Exploitation, which involves using technical flaws for attacks, such as exploitation of critical vulnerabilities or remote code execution. In this case, the vulnerability is the unnecessary exposure of the BGP service to the Internet, which could be exploited for malicious purposes.</t>
+          <t>The incident description provided indicates a vulnerability exploitation scenario where the BGP (Border Gateway Protocol) service is exposed to the Internet, making it potentially accessible to unauthorized parties. This exposure could lead to denial-of-service attacks or other malicious activities targeting the BGP service of the affected system. The notification from CERT.br suggests protecting the BGP service via ACLs (Access Control Lists) or disabling it if not necessary, which directly points to addressing a technical flaw (the unnecessary exposure of the BGP service) to prevent potential attacks. This aligns with the definition of CAT5: Vulnerability Exploitation, where technical flaws are used for attacks.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The incident description indicates an intrusion attempt, as evidenced by the report of unwanted activities toward a server, including port scans and potential malware or intrusion attempts from a specific IP address. The logs provided show blocked connection attempts and flags indicating potential malicious activity. However, there is no confirmation that the attack was successful or that any unauthorized access was gained, which aligns with the definition of CAT12: Intrusion Attempt – unconfirmed attacks, such as network scans, brute force, or blocked exploits.</t>
+          <t>The incident description indicates an intrusion attempt, as evidenced by the report of unwanted activities toward a server, including port scans and attempted database queries/injections/extractions. The logs show blocked connection attempts from a specific IP address to various servers on different ports, which suggests an unconfirmed attack. This aligns with the definition of CAT12: Intrusion Attempt, which includes examples such as network scans, brute force, and blocked exploits. The incident does not provide conclusive evidence of a successful breach or compromise, making CAT12 the most appropriate category for this incident.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The incident description involves a vulnerability exploitation where the Simple Service Discovery Protocol (SSDP) is left enabled and accessible over the internet, making it susceptible to amplification attacks in Distributed Denial of Service (DDoS) scenarios. This aligns with the definition of CAT5: Vulnerability Exploitation, which includes using technical flaws for attacks, such as exploitation of critical vulnerabilities or remote code execution. In this case, the SSDP service's openness to the internet allows attackers to exploit it for malicious purposes, fitting the criteria for CAT5.</t>
+          <t>The incident description involves a vulnerability exploitation where the Simple Service Discovery Protocol (SSDP) is left enabled and accessible over the internet, making it susceptible to amplification attacks in Distributed Denial of Service (DDoS). This aligns with the definition of CAT5: Vulnerability Exploitation, which includes using technical flaws for attacks. The specific example given matches the scenario described, where an exploit of a critical vulnerability (in this case, the misuse of SSDP for DDoS amplification) is being warned against and steps are provided to mitigate it by either disabling the service if not in use or configuring it to be available only on the local network.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The incident description involves a vulnerability exploitation where servers with improperly configured NTP (Network Time Protocol) are susceptible to being abused in distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5, which includes using technical flaws for attacks, such as exploiting critical vulnerabilities or remote code execution. In this case, the flaw is the misconfiguration of NTP servers that allows them to be used in amplification attacks, a type of DDoS attack where the attacker exploits the server's willingness to respond to certain commands with much larger responses than the initial request, thereby amplifying the traffic sent to the target. This scenario directly relates to the exploitation of technical flaws for malicious purposes, fitting the CAT5 category.</t>
+          <t>The incident description involves a vulnerability exploitation where servers with improperly configured NTP (Network Time Protocol) are susceptible to being abused in distributed denial-of-service (DDoS) attacks. This aligns with the definition of CAT5, which includes using technical flaws for attacks, such as exploitation of critical vulnerabilities or remote code execution. In this case, the flaw is the misconfiguration of NTP servers that allows them to be used in amplification attacks, a type of DDoS attack where the attacker exploits the server's willingness to respond to certain commands with much larger responses than the initial request, thereby amplifying the traffic sent to the target. This scenario directly relates to the exploitation of technical flaws for malicious purposes, fitting the CAT5 category.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>The incident description involves a phishing scam, which is a classic example of social engineering. The email attempts to deceive the recipient into taking action or revealing sensitive information, aligning with the definition of CAT7: Social Engineering – deception to gain access or data. Specifically, the email claims to be from "Conta Vivo" and informs the recipient about a complaint regarding a phishing scam practice, requesting cooperation in analyzing and investigating the reported facts. This tactic aims to manipulate the recipient into responding or clicking on potential malicious links, making CAT7 the most appropriate category for this incident.</t>
+          <t>The incident description involves a phishing scam, which is a classic example of social engineering. The email attempts to deceive the recipient into taking action or revealing sensitive information, aligning with the definition of CAT7: Social Engineering – deception to gain access or data. Specifically, the email claims to be from "Conta Vivo" and informs the recipient about a complaint regarding a phishing scam practice, asking for cooperation in analyzing and investigating the reported facts. This tactic aims to manipulate the recipient into responding or clicking on potential malicious links, making CAT7 the most appropriate category for this incident.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>The incident description involves a case of social engineering where an email server on the network is being used to send fraudulent emails attempting to extort users. This aligns with the definition of CAT7, which includes deception tactics like phishing (in this case, extortion via email) to gain access or data. The emails are designed to deceive recipients into taking certain actions, fitting the social engineering category.</t>
+          <t>The incident description involves a case of social engineering where an email server on the target's network is being used to send fraudulent emails attempting to extort users. This aligns with the definition of CAT7, which includes phishing and other forms of deception aimed at gaining access or data. In this scenario, the attackers are using the compromised email server to deceive recipients into potentially divulging sensitive information or performing certain actions that could compromise security further. The use of deceptive emails to manipulate users into taking actions that could lead to security breaches or data loss is a clear indicator of social engineering tactics, making CAT7 the most appropriate classification for this incident.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The incident description mentions a "Desfiguracao de website" which translates to "website defacement". This indicates that the content of the website was altered without authorization, which aligns with the definition of CAT9: Unauthorized Modification. Specifically, the example given for CAT9 is "defacement", which matches the situation described in the incident report. Therefore, the most appropriate category for this incident is CAT9.</t>
+          <t>The incident description mentions "Desfiguracao de website" which translates to "website defacement". This indicates that the content of a website was altered without authorization, which aligns with the definition of CAT9: Unauthorized Modification. Specifically, the example given for CAT9 is "defacement", which matches the situation described in the incident report where the website's content was changed and made accessible.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The incident description provided indicates that a website's content was altered, which is an example of unauthorized modification. The email from CERT.br reports that the website's content was changed and is still accessible, and they request an investigation into the incident. This aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as defacement (the act of changing the visual appearance of a website without permission) and record manipulation. In this case, the alteration of the website's content fits within the scope of unauthorized modification, making CAT9 the most appropriate category for classification.</t>
+          <t>The incident description provided indicates that a website's content was altered, which is an example of unauthorized modification. The email from CERT.br reports that the website's content was changed and is still accessible, suggesting that the website was defaced. This aligns with the definition of CAT9: Unauthorized Modification, which includes examples such as defacement and record manipulation. Therefore, the most appropriate category for this incident is CAT9.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The incident description clearly indicates that a website's content was altered without authorization, which is an example of "defacement" as mentioned in the CAT9 category. The email from CERT.br reports that the website's content was changed and includes a message from the hackers claiming responsibility, further supporting this classification. This type of incident falls under "Unauthorized Modification," making CAT9 the most appropriate category for this incident.</t>
+          <t>The incident description clearly indicates that a website's content was altered without authorization, which is an example of defacement. This aligns with the definition of CAT9: Unauthorized Modification, where improper changes are made to systems or data. In this case, the unauthorized modification involves changing the website's content, including adding messages and images ("Hacked by theMx0nday", "vcs foram ownados suas vadias 3:", and a skull-dancing.gif), which demonstrates an improper change to the system (the website). This matches the category's examples of defacement and record manipulation.</t>
         </is>
       </c>
       <c r="E25" t="n">
